--- a/FAO6.xlsx
+++ b/FAO6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Dropbox\UIUC\QSDsan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F0AB12-9DCF-46AD-B8AA-6AB2F61362C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A7EE4-2A11-4D07-B7F1-05F796CC4AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{CD571D5E-FE85-44CD-846F-62E99D6EA9A1}"/>
   </bookViews>
@@ -379,9 +379,6 @@
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   <si>
     <t>Importing</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkiye</t>
   </si>
 </sst>
 </file>
@@ -1293,18 +1293,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DDF4B0-9D1F-4EC7-A25F-9C410C278DA6}">
   <dimension ref="A1:D1556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A970" workbookViewId="0">
+      <selection activeCell="A983" sqref="A983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -15035,7 +15035,7 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A982" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B982" t="s">
         <v>81</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A983" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B983" t="s">
         <v>81</v>
@@ -15063,7 +15063,7 @@
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A984" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B984" t="s">
         <v>81</v>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A985" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B985" t="s">
         <v>81</v>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A986" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B986" t="s">
         <v>73</v>
@@ -15105,10 +15105,10 @@
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A987" t="s">
+        <v>133</v>
+      </c>
+      <c r="B987" t="s">
         <v>119</v>
-      </c>
-      <c r="B987" t="s">
-        <v>120</v>
       </c>
       <c r="C987" t="s">
         <v>8</v>
@@ -15119,7 +15119,7 @@
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A988" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B988" t="s">
         <v>23</v>
@@ -15133,7 +15133,7 @@
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A989" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B989" t="s">
         <v>24</v>
@@ -15147,7 +15147,7 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A990" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B990" t="s">
         <v>24</v>
@@ -15161,7 +15161,7 @@
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A991" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B991" t="s">
         <v>9</v>
@@ -15175,7 +15175,7 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A992" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B992" t="s">
         <v>9</v>
@@ -15189,7 +15189,7 @@
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A993" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B993" t="s">
         <v>9</v>
@@ -15203,7 +15203,7 @@
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A994" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B994" t="s">
         <v>9</v>
@@ -15217,7 +15217,7 @@
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A995" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B995" t="s">
         <v>74</v>
@@ -15231,7 +15231,7 @@
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A996" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B996" t="s">
         <v>74</v>
@@ -15245,7 +15245,7 @@
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A997" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B997" t="s">
         <v>74</v>
@@ -15259,7 +15259,7 @@
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A998" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B998" t="s">
         <v>62</v>
@@ -15273,7 +15273,7 @@
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A999" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B999" t="s">
         <v>62</v>
@@ -15287,7 +15287,7 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1000" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1000" t="s">
         <v>62</v>
@@ -15301,7 +15301,7 @@
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1001" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1001" t="s">
         <v>62</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1002" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1002" t="s">
         <v>11</v>
@@ -15329,7 +15329,7 @@
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1003" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1003" t="s">
         <v>11</v>
@@ -15343,7 +15343,7 @@
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1004" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1004" t="s">
         <v>11</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1005" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1005" t="s">
         <v>11</v>
@@ -15371,7 +15371,7 @@
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1006" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1006" t="s">
         <v>11</v>
@@ -15385,7 +15385,7 @@
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1007" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1007" t="s">
         <v>11</v>
@@ -15399,7 +15399,7 @@
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1008" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1008" t="s">
         <v>35</v>
@@ -15413,7 +15413,7 @@
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1009" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1009" t="s">
         <v>35</v>
@@ -15427,7 +15427,7 @@
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1010" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1010" t="s">
         <v>30</v>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1011" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1011" t="s">
         <v>30</v>
@@ -15455,7 +15455,7 @@
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1012" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1012" t="s">
         <v>30</v>
@@ -15469,7 +15469,7 @@
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1013" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1013" t="s">
         <v>63</v>
@@ -15483,7 +15483,7 @@
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1014" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1014" t="s">
         <v>75</v>
@@ -15497,7 +15497,7 @@
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1015" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1015" t="s">
         <v>64</v>
@@ -15511,7 +15511,7 @@
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1016" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1016" t="s">
         <v>55</v>
@@ -15525,7 +15525,7 @@
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1017" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1017" t="s">
         <v>55</v>
@@ -15539,7 +15539,7 @@
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1018" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1018" t="s">
         <v>25</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1019" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1019" t="s">
         <v>25</v>
@@ -15567,7 +15567,7 @@
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1020" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1020" t="s">
         <v>25</v>
@@ -15581,7 +15581,7 @@
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1021" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1021" t="s">
         <v>25</v>
@@ -15595,7 +15595,7 @@
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1022" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1022" t="s">
         <v>25</v>
@@ -15609,7 +15609,7 @@
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1023" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1023" t="s">
         <v>57</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1024" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1024" t="s">
         <v>57</v>
@@ -15637,7 +15637,7 @@
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1025" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1025" t="s">
         <v>83</v>
@@ -15651,7 +15651,7 @@
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1026" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1026" t="s">
         <v>83</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1027" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1027" t="s">
         <v>83</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1028" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1028" t="s">
         <v>83</v>
@@ -15693,7 +15693,7 @@
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1029" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1029" t="s">
         <v>42</v>
@@ -15707,7 +15707,7 @@
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1030" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1030" t="s">
         <v>42</v>
@@ -15721,7 +15721,7 @@
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1031" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1031" t="s">
         <v>42</v>
@@ -15735,7 +15735,7 @@
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1032" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1032" t="s">
         <v>42</v>
@@ -15749,7 +15749,7 @@
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1033" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1033" t="s">
         <v>42</v>
@@ -15763,7 +15763,7 @@
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1034" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1034" t="s">
         <v>26</v>
@@ -15777,7 +15777,7 @@
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1035" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1035" t="s">
         <v>50</v>
@@ -15791,7 +15791,7 @@
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1036" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1036" t="s">
         <v>50</v>
@@ -15805,7 +15805,7 @@
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1037" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1037" t="s">
         <v>50</v>
@@ -15819,7 +15819,7 @@
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1038" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1038" t="s">
         <v>50</v>
@@ -15833,7 +15833,7 @@
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1039" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1039" t="s">
         <v>31</v>
@@ -15847,7 +15847,7 @@
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1040" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1040" t="s">
         <v>31</v>
@@ -15861,7 +15861,7 @@
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1041" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1041" t="s">
         <v>31</v>
@@ -15875,7 +15875,7 @@
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1042" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1042" t="s">
         <v>12</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1043" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1043" t="s">
         <v>12</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1044" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1044" t="s">
         <v>43</v>
@@ -15917,7 +15917,7 @@
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1045" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1045" t="s">
         <v>43</v>
@@ -15931,7 +15931,7 @@
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1046" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1046" t="s">
         <v>43</v>
@@ -15945,7 +15945,7 @@
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1047" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1047" t="s">
         <v>43</v>
@@ -15959,7 +15959,7 @@
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1048" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1048" t="s">
         <v>44</v>
@@ -15973,7 +15973,7 @@
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1049" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1049" t="s">
         <v>44</v>
@@ -15987,7 +15987,7 @@
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1050" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1050" t="s">
         <v>44</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1051" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1051" t="s">
         <v>27</v>
@@ -16015,7 +16015,7 @@
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1052" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1052" t="s">
         <v>27</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1053" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1053" t="s">
         <v>45</v>
@@ -16043,7 +16043,7 @@
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1054" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1054" t="s">
         <v>45</v>
@@ -16057,7 +16057,7 @@
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1055" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1055" t="s">
         <v>45</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1056" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1056" t="s">
         <v>86</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1057" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1057" t="s">
         <v>78</v>
@@ -16099,7 +16099,7 @@
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1058" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1058" t="s">
         <v>38</v>
@@ -16113,7 +16113,7 @@
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1059" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1059" t="s">
         <v>38</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1060" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1060" t="s">
         <v>38</v>
@@ -16141,7 +16141,7 @@
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1061" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1061" t="s">
         <v>32</v>
@@ -16155,7 +16155,7 @@
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1062" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1062" t="s">
         <v>32</v>
@@ -16169,7 +16169,7 @@
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1063" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1063" t="s">
         <v>32</v>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1064" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1064" t="s">
         <v>84</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1065" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1065" t="s">
         <v>84</v>
@@ -16211,7 +16211,7 @@
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1066" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1066" t="s">
         <v>84</v>
@@ -16225,7 +16225,7 @@
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1067" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1067" t="s">
         <v>84</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1068" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1068" t="s">
         <v>84</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1069" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1069" t="s">
         <v>68</v>
@@ -16267,7 +16267,7 @@
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1070" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1070" t="s">
         <v>68</v>
@@ -16281,7 +16281,7 @@
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1071" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1071" t="s">
         <v>28</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1072" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1072" t="s">
         <v>15</v>
@@ -16309,7 +16309,7 @@
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1073" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1073" t="s">
         <v>15</v>
@@ -16323,7 +16323,7 @@
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1074" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1074" t="s">
         <v>15</v>
@@ -16337,7 +16337,7 @@
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1075" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1075" t="s">
         <v>15</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1076" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1076" t="s">
         <v>39</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1077" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1077" t="s">
         <v>39</v>
@@ -16379,7 +16379,7 @@
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1078" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1078" t="s">
         <v>36</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1079" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1079" t="s">
         <v>36</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1080" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1080" t="s">
         <v>21</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1081" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1081" t="s">
         <v>21</v>
@@ -16435,7 +16435,7 @@
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1082" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1082" t="s">
         <v>21</v>
@@ -16449,7 +16449,7 @@
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1083" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1083" t="s">
         <v>16</v>
@@ -16463,7 +16463,7 @@
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1084" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1084" t="s">
         <v>16</v>
@@ -16477,7 +16477,7 @@
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1085" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1085" t="s">
         <v>16</v>
@@ -16491,7 +16491,7 @@
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1086" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1086" t="s">
         <v>16</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1087" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1087" t="s">
         <v>69</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1088" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1088" t="s">
         <v>69</v>
@@ -16533,7 +16533,7 @@
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1089" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1089" t="s">
         <v>40</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1090" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1090" t="s">
         <v>51</v>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1091" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1091" t="s">
         <v>79</v>
@@ -16575,7 +16575,7 @@
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1092" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1092" t="s">
         <v>70</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1093" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1093" t="s">
         <v>33</v>
@@ -16603,7 +16603,7 @@
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1094" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1094" t="s">
         <v>33</v>
@@ -16617,7 +16617,7 @@
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1095" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1095" t="s">
         <v>52</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1096" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1096" t="s">
         <v>52</v>
@@ -16645,7 +16645,7 @@
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1097" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1097" t="s">
         <v>52</v>
@@ -16659,7 +16659,7 @@
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1098" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1098" t="s">
         <v>71</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1099" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1099" t="s">
         <v>58</v>
@@ -16687,7 +16687,7 @@
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1100" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B1100" t="s">
         <v>87</v>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1101" t="s">
         <v>24</v>
@@ -16715,7 +16715,7 @@
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1102" t="s">
         <v>26</v>
@@ -16729,7 +16729,7 @@
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1103" t="s">
         <v>26</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1104" t="s">
         <v>27</v>
@@ -16757,7 +16757,7 @@
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1105" t="s">
         <v>27</v>
@@ -16771,7 +16771,7 @@
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1106" t="s">
         <v>81</v>
@@ -16785,7 +16785,7 @@
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1107" t="s">
         <v>81</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1108" t="s">
         <v>60</v>
@@ -16813,7 +16813,7 @@
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1109" t="s">
         <v>60</v>
@@ -16827,7 +16827,7 @@
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1110" t="s">
         <v>60</v>
@@ -16841,7 +16841,7 @@
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1111" t="s">
         <v>60</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1112" t="s">
         <v>23</v>
@@ -16869,7 +16869,7 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1113" t="s">
         <v>24</v>
@@ -16883,7 +16883,7 @@
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1114" t="s">
         <v>9</v>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1115" t="s">
         <v>9</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1116" t="s">
         <v>62</v>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1117" t="s">
         <v>62</v>
@@ -16939,7 +16939,7 @@
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1118" t="s">
         <v>62</v>
@@ -16953,7 +16953,7 @@
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1119" t="s">
         <v>62</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1120" t="s">
         <v>11</v>
@@ -16981,7 +16981,7 @@
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1121" t="s">
         <v>11</v>
@@ -16995,7 +16995,7 @@
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1122" t="s">
         <v>11</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1123" t="s">
         <v>11</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1124" t="s">
         <v>11</v>
@@ -17037,7 +17037,7 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1125" t="s">
         <v>35</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1126" t="s">
         <v>35</v>
@@ -17065,7 +17065,7 @@
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1127" t="s">
         <v>35</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1128" t="s">
         <v>30</v>
@@ -17093,7 +17093,7 @@
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1129" t="s">
         <v>30</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1130" t="s">
         <v>30</v>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1131" t="s">
         <v>30</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1132" t="s">
         <v>30</v>
@@ -17149,7 +17149,7 @@
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1133" t="s">
         <v>30</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1134" t="s">
         <v>55</v>
@@ -17177,7 +17177,7 @@
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1135" t="s">
         <v>55</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1136" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1136" t="s">
         <v>55</v>
@@ -17205,7 +17205,7 @@
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1137" t="s">
         <v>55</v>
@@ -17219,7 +17219,7 @@
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1138" t="s">
         <v>55</v>
@@ -17233,7 +17233,7 @@
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1139" t="s">
         <v>55</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1140" t="s">
         <v>57</v>
@@ -17261,7 +17261,7 @@
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1141" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1141" t="s">
         <v>57</v>
@@ -17275,7 +17275,7 @@
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1142" t="s">
         <v>83</v>
@@ -17289,7 +17289,7 @@
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1143" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1143" t="s">
         <v>83</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1144" t="s">
         <v>42</v>
@@ -17317,7 +17317,7 @@
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1145" t="s">
         <v>42</v>
@@ -17331,7 +17331,7 @@
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1146" t="s">
         <v>42</v>
@@ -17345,7 +17345,7 @@
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1147" t="s">
         <v>42</v>
@@ -17359,7 +17359,7 @@
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1148" t="s">
         <v>42</v>
@@ -17373,7 +17373,7 @@
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1149" t="s">
         <v>26</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1150" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1150" t="s">
         <v>50</v>
@@ -17401,7 +17401,7 @@
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1151" t="s">
         <v>50</v>
@@ -17415,7 +17415,7 @@
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1152" t="s">
         <v>50</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1153" t="s">
         <v>50</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1154" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1154" t="s">
         <v>50</v>
@@ -17457,7 +17457,7 @@
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1155" t="s">
         <v>31</v>
@@ -17471,7 +17471,7 @@
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1156" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1156" t="s">
         <v>31</v>
@@ -17485,7 +17485,7 @@
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1157" t="s">
         <v>31</v>
@@ -17499,7 +17499,7 @@
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1158" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1158" t="s">
         <v>31</v>
@@ -17513,7 +17513,7 @@
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1159" t="s">
         <v>12</v>
@@ -17527,7 +17527,7 @@
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1160" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1160" t="s">
         <v>12</v>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1161" t="s">
         <v>43</v>
@@ -17555,7 +17555,7 @@
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1162" t="s">
         <v>43</v>
@@ -17569,7 +17569,7 @@
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1163" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1163" t="s">
         <v>44</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1164" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1164" t="s">
         <v>44</v>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1165" t="s">
         <v>27</v>
@@ -17611,7 +17611,7 @@
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1166" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1166" t="s">
         <v>45</v>
@@ -17625,7 +17625,7 @@
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1167" t="s">
         <v>66</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1168" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1168" t="s">
         <v>66</v>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1169" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1169" t="s">
         <v>66</v>
@@ -17667,7 +17667,7 @@
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1170" t="s">
         <v>66</v>
@@ -17681,7 +17681,7 @@
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1171" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1171" t="s">
         <v>38</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1172" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1172" t="s">
         <v>38</v>
@@ -17709,7 +17709,7 @@
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1173" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1173" t="s">
         <v>38</v>
@@ -17723,7 +17723,7 @@
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1174" t="s">
         <v>38</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1175" t="s">
         <v>32</v>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1176" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1176" t="s">
         <v>84</v>
@@ -17765,7 +17765,7 @@
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1177" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1177" t="s">
         <v>84</v>
@@ -17779,7 +17779,7 @@
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1178" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1178" t="s">
         <v>84</v>
@@ -17793,7 +17793,7 @@
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1179" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1179" t="s">
         <v>84</v>
@@ -17807,7 +17807,7 @@
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1180" t="s">
         <v>84</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1181" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1181" t="s">
         <v>67</v>
@@ -17835,7 +17835,7 @@
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1182" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1182" t="s">
         <v>67</v>
@@ -17849,7 +17849,7 @@
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1183" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1183" t="s">
         <v>67</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1184" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1184" t="s">
         <v>67</v>
@@ -17877,7 +17877,7 @@
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1185" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1185" t="s">
         <v>68</v>
@@ -17891,7 +17891,7 @@
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1186" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1186" t="s">
         <v>15</v>
@@ -17905,7 +17905,7 @@
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1187" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1187" t="s">
         <v>15</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1188" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1188" t="s">
         <v>21</v>
@@ -17933,7 +17933,7 @@
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1189" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1189" t="s">
         <v>21</v>
@@ -17947,7 +17947,7 @@
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1190" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1190" t="s">
         <v>21</v>
@@ -17961,7 +17961,7 @@
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1191" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1191" t="s">
         <v>16</v>
@@ -17975,7 +17975,7 @@
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1192" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1192" t="s">
         <v>16</v>
@@ -17989,7 +17989,7 @@
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1193" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1193" t="s">
         <v>40</v>
@@ -18003,7 +18003,7 @@
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1194" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1194" t="s">
         <v>51</v>
@@ -18017,7 +18017,7 @@
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1195" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1195" t="s">
         <v>33</v>
@@ -18031,7 +18031,7 @@
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1196" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1196" t="s">
         <v>52</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1197" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1197" t="s">
         <v>52</v>
@@ -18059,7 +18059,7 @@
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1198" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1198" t="s">
         <v>52</v>
@@ -18073,7 +18073,7 @@
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1199" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1199" t="s">
         <v>87</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1200" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1200" t="s">
         <v>81</v>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1201" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1201" t="s">
         <v>81</v>
@@ -18115,10 +18115,10 @@
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1202" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1202" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1202" t="s">
         <v>4</v>
@@ -18129,10 +18129,10 @@
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1203" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1203" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1203" t="s">
         <v>5</v>
@@ -18143,10 +18143,10 @@
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1204" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1204" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1204" t="s">
         <v>7</v>
@@ -18157,10 +18157,10 @@
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1205" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1205" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1205" t="s">
         <v>8</v>
@@ -18171,7 +18171,7 @@
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1206" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1206" t="s">
         <v>23</v>
@@ -18185,7 +18185,7 @@
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1207" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1207" t="s">
         <v>23</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1208" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1208" t="s">
         <v>23</v>
@@ -18213,7 +18213,7 @@
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1209" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1209" t="s">
         <v>23</v>
@@ -18227,7 +18227,7 @@
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1210" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1210" t="s">
         <v>9</v>
@@ -18241,7 +18241,7 @@
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1211" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1211" t="s">
         <v>9</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1212" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1212" t="s">
         <v>9</v>
@@ -18269,7 +18269,7 @@
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1213" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1213" t="s">
         <v>9</v>
@@ -18283,7 +18283,7 @@
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1214" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1214" t="s">
         <v>74</v>
@@ -18297,7 +18297,7 @@
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1215" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1215" t="s">
         <v>74</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1216" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1216" t="s">
         <v>61</v>
@@ -18325,7 +18325,7 @@
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1217" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1217" t="s">
         <v>11</v>
@@ -18339,7 +18339,7 @@
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1218" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1218" t="s">
         <v>35</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1219" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1219" t="s">
         <v>35</v>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1220" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1220" t="s">
         <v>63</v>
@@ -18381,7 +18381,7 @@
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1221" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1221" t="s">
         <v>63</v>
@@ -18395,7 +18395,7 @@
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1222" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1222" t="s">
         <v>63</v>
@@ -18409,7 +18409,7 @@
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1223" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1223" t="s">
         <v>109</v>
@@ -18423,7 +18423,7 @@
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1224" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1224" t="s">
         <v>25</v>
@@ -18437,7 +18437,7 @@
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1225" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1225" t="s">
         <v>25</v>
@@ -18451,7 +18451,7 @@
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1226" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1226" t="s">
         <v>25</v>
@@ -18465,7 +18465,7 @@
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1227" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1227" t="s">
         <v>25</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1228" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1228" t="s">
         <v>25</v>
@@ -18493,7 +18493,7 @@
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1229" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1229" t="s">
         <v>25</v>
@@ -18507,7 +18507,7 @@
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1230" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1230" t="s">
         <v>57</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1231" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1231" t="s">
         <v>83</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1232" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1232" t="s">
         <v>83</v>
@@ -18549,7 +18549,7 @@
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1233" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1233" t="s">
         <v>83</v>
@@ -18563,7 +18563,7 @@
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1234" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1234" t="s">
         <v>83</v>
@@ -18577,7 +18577,7 @@
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1235" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1235" t="s">
         <v>83</v>
@@ -18591,7 +18591,7 @@
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1236" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1236" t="s">
         <v>42</v>
@@ -18605,7 +18605,7 @@
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1237" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1237" t="s">
         <v>42</v>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1238" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1238" t="s">
         <v>42</v>
@@ -18633,7 +18633,7 @@
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1239" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1239" t="s">
         <v>42</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1240" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1240" t="s">
         <v>42</v>
@@ -18661,7 +18661,7 @@
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1241" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1241" t="s">
         <v>26</v>
@@ -18675,7 +18675,7 @@
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1242" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1242" t="s">
         <v>50</v>
@@ -18689,7 +18689,7 @@
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1243" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1243" t="s">
         <v>31</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1244" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1244" t="s">
         <v>31</v>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1245" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1245" t="s">
         <v>12</v>
@@ -18731,7 +18731,7 @@
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1246" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1246" t="s">
         <v>43</v>
@@ -18745,7 +18745,7 @@
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1247" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1247" t="s">
         <v>43</v>
@@ -18759,7 +18759,7 @@
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1248" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1248" t="s">
         <v>43</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1249" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1249" t="s">
         <v>27</v>
@@ -18787,7 +18787,7 @@
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1250" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1250" t="s">
         <v>27</v>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1251" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1251" t="s">
         <v>27</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1252" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1252" t="s">
         <v>45</v>
@@ -18829,7 +18829,7 @@
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1253" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1253" t="s">
         <v>45</v>
@@ -18843,7 +18843,7 @@
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1254" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1254" t="s">
         <v>45</v>
@@ -18857,7 +18857,7 @@
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1255" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1255" t="s">
         <v>45</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1256" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1256" t="s">
         <v>45</v>
@@ -18885,7 +18885,7 @@
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1257" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1257" t="s">
         <v>45</v>
@@ -18899,7 +18899,7 @@
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1258" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1258" t="s">
         <v>45</v>
@@ -18913,7 +18913,7 @@
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1259" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1259" t="s">
         <v>38</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1260" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1260" t="s">
         <v>38</v>
@@ -18941,7 +18941,7 @@
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1261" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1261" t="s">
         <v>32</v>
@@ -18955,7 +18955,7 @@
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1262" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1262" t="s">
         <v>32</v>
@@ -18969,7 +18969,7 @@
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1263" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1263" t="s">
         <v>32</v>
@@ -18983,7 +18983,7 @@
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1264" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1264" t="s">
         <v>32</v>
@@ -18997,7 +18997,7 @@
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1265" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1265" t="s">
         <v>84</v>
@@ -19011,7 +19011,7 @@
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1266" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1266" t="s">
         <v>84</v>
@@ -19025,7 +19025,7 @@
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1267" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1267" t="s">
         <v>28</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1268" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1268" t="s">
         <v>15</v>
@@ -19053,7 +19053,7 @@
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1269" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1269" t="s">
         <v>15</v>
@@ -19067,7 +19067,7 @@
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1270" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1270" t="s">
         <v>15</v>
@@ -19081,7 +19081,7 @@
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1271" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1271" t="s">
         <v>15</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1272" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1272" t="s">
         <v>39</v>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1273" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1273" t="s">
         <v>39</v>
@@ -19123,7 +19123,7 @@
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1274" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1274" t="s">
         <v>39</v>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1275" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1275" t="s">
         <v>39</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1276" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1276" t="s">
         <v>21</v>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1277" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1277" t="s">
         <v>69</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1278" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1278" t="s">
         <v>40</v>
@@ -19193,7 +19193,7 @@
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1279" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1279" t="s">
         <v>40</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1280" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1280" t="s">
         <v>40</v>
@@ -19221,7 +19221,7 @@
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1281" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1281" t="s">
         <v>71</v>
@@ -19235,7 +19235,7 @@
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1282" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1282" t="s">
         <v>87</v>
@@ -19249,10 +19249,10 @@
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1283" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1283" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1283" t="s">
         <v>8</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1284" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1284" t="s">
         <v>60</v>
@@ -19277,7 +19277,7 @@
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1285" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1285" t="s">
         <v>111</v>
@@ -19291,7 +19291,7 @@
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1286" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1286" t="s">
         <v>24</v>
@@ -19305,7 +19305,7 @@
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1287" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1287" t="s">
         <v>24</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1288" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1288" t="s">
         <v>9</v>
@@ -19333,7 +19333,7 @@
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1289" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1289" t="s">
         <v>9</v>
@@ -19347,7 +19347,7 @@
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1290" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1290" t="s">
         <v>9</v>
@@ -19361,7 +19361,7 @@
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1291" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1291" t="s">
         <v>9</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1292" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1292" t="s">
         <v>9</v>
@@ -19389,7 +19389,7 @@
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1293" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1293" t="s">
         <v>9</v>
@@ -19403,7 +19403,7 @@
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1294" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1294" t="s">
         <v>61</v>
@@ -19417,7 +19417,7 @@
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1295" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1295" t="s">
         <v>61</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1296" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1296" t="s">
         <v>11</v>
@@ -19445,7 +19445,7 @@
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1297" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1297" t="s">
         <v>11</v>
@@ -19459,7 +19459,7 @@
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1298" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1298" t="s">
         <v>11</v>
@@ -19473,7 +19473,7 @@
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1299" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1299" t="s">
         <v>11</v>
@@ -19487,7 +19487,7 @@
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1300" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1300" t="s">
         <v>11</v>
@@ -19501,7 +19501,7 @@
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1301" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1301" t="s">
         <v>11</v>
@@ -19515,7 +19515,7 @@
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1302" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1302" t="s">
         <v>11</v>
@@ -19529,7 +19529,7 @@
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1303" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1303" t="s">
         <v>35</v>
@@ -19543,7 +19543,7 @@
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1304" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1304" t="s">
         <v>35</v>
@@ -19557,7 +19557,7 @@
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1305" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1305" t="s">
         <v>35</v>
@@ -19571,7 +19571,7 @@
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1306" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1306" t="s">
         <v>30</v>
@@ -19585,7 +19585,7 @@
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1307" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1307" t="s">
         <v>30</v>
@@ -19599,7 +19599,7 @@
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1308" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1308" t="s">
         <v>30</v>
@@ -19613,7 +19613,7 @@
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1309" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1309" t="s">
         <v>49</v>
@@ -19627,7 +19627,7 @@
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1310" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1310" t="s">
         <v>55</v>
@@ -19641,7 +19641,7 @@
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1311" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1311" t="s">
         <v>55</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1312" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1312" t="s">
         <v>65</v>
@@ -19669,7 +19669,7 @@
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1313" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1313" t="s">
         <v>65</v>
@@ -19683,7 +19683,7 @@
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1314" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1314" t="s">
         <v>65</v>
@@ -19697,7 +19697,7 @@
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1315" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1315" t="s">
         <v>25</v>
@@ -19711,7 +19711,7 @@
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1316" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1316" t="s">
         <v>25</v>
@@ -19725,7 +19725,7 @@
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1317" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1317" t="s">
         <v>26</v>
@@ -19739,7 +19739,7 @@
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1318" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1318" t="s">
         <v>26</v>
@@ -19753,7 +19753,7 @@
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1319" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1319" t="s">
         <v>26</v>
@@ -19767,7 +19767,7 @@
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1320" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1320" t="s">
         <v>26</v>
@@ -19781,7 +19781,7 @@
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1321" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1321" t="s">
         <v>26</v>
@@ -19795,7 +19795,7 @@
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1322" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1322" t="s">
         <v>26</v>
@@ -19809,7 +19809,7 @@
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1323" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1323" t="s">
         <v>26</v>
@@ -19823,7 +19823,7 @@
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1324" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1324" t="s">
         <v>50</v>
@@ -19837,7 +19837,7 @@
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1325" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1325" t="s">
         <v>31</v>
@@ -19851,7 +19851,7 @@
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1326" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1326" t="s">
         <v>31</v>
@@ -19865,7 +19865,7 @@
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1327" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1327" t="s">
         <v>31</v>
@@ -19879,7 +19879,7 @@
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1328" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1328" t="s">
         <v>31</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1329" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1329" t="s">
         <v>31</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1330" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1330" t="s">
         <v>31</v>
@@ -19921,7 +19921,7 @@
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1331" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1331" t="s">
         <v>12</v>
@@ -19935,7 +19935,7 @@
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1332" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1332" t="s">
         <v>12</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1333" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1333" t="s">
         <v>43</v>
@@ -19963,7 +19963,7 @@
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1334" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1334" t="s">
         <v>27</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1335" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1335" t="s">
         <v>27</v>
@@ -19991,7 +19991,7 @@
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1336" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1336" t="s">
         <v>27</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1337" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1337" t="s">
         <v>45</v>
@@ -20019,7 +20019,7 @@
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1338" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1338" t="s">
         <v>66</v>
@@ -20033,7 +20033,7 @@
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1339" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1339" t="s">
         <v>15</v>
@@ -20047,7 +20047,7 @@
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1340" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1340" t="s">
         <v>36</v>
@@ -20061,7 +20061,7 @@
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1341" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1341" t="s">
         <v>21</v>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1342" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1342" t="s">
         <v>21</v>
@@ -20089,7 +20089,7 @@
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1343" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1343" t="s">
         <v>51</v>
@@ -20103,7 +20103,7 @@
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1344" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1344" t="s">
         <v>33</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1345" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1345" t="s">
         <v>71</v>
@@ -20131,7 +20131,7 @@
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1346" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1346" t="s">
         <v>9</v>
@@ -20145,7 +20145,7 @@
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1347" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1347" t="s">
         <v>9</v>
@@ -20159,7 +20159,7 @@
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1348" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1348" t="s">
         <v>11</v>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1349" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1349" t="s">
         <v>25</v>
@@ -20187,7 +20187,7 @@
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1350" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1350" t="s">
         <v>83</v>
@@ -20201,7 +20201,7 @@
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1351" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1351" t="s">
         <v>50</v>
@@ -20215,7 +20215,7 @@
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1352" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1352" t="s">
         <v>31</v>
@@ -20229,7 +20229,7 @@
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1353" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1353" t="s">
         <v>12</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1354" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1354" t="s">
         <v>12</v>
@@ -20257,7 +20257,7 @@
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1355" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1355" t="s">
         <v>43</v>
@@ -20271,7 +20271,7 @@
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1356" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1356" t="s">
         <v>27</v>
@@ -20285,7 +20285,7 @@
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1357" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1357" t="s">
         <v>27</v>
@@ -20299,7 +20299,7 @@
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1358" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1358" t="s">
         <v>27</v>
@@ -20313,7 +20313,7 @@
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1359" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1359" t="s">
         <v>27</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1360" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1360" t="s">
         <v>27</v>
@@ -20341,7 +20341,7 @@
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1361" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1361" t="s">
         <v>45</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1362" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1362" t="s">
         <v>104</v>
@@ -20369,7 +20369,7 @@
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1363" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1363" t="s">
         <v>104</v>
@@ -20383,7 +20383,7 @@
     </row>
     <row r="1364" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1364" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1364" t="s">
         <v>36</v>
@@ -20397,7 +20397,7 @@
     </row>
     <row r="1365" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1365" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1365" t="s">
         <v>71</v>
@@ -20411,7 +20411,7 @@
     </row>
     <row r="1366" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1366" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1366" t="s">
         <v>71</v>
@@ -20425,7 +20425,7 @@
     </row>
     <row r="1367" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1367" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1367" t="s">
         <v>94</v>
@@ -20439,7 +20439,7 @@
     </row>
     <row r="1368" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1368" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1368" t="s">
         <v>54</v>
@@ -20453,7 +20453,7 @@
     </row>
     <row r="1369" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1369" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1369" t="s">
         <v>54</v>
@@ -20467,7 +20467,7 @@
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1370" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1370" t="s">
         <v>81</v>
@@ -20481,7 +20481,7 @@
     </row>
     <row r="1371" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1371" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1371" t="s">
         <v>81</v>
@@ -20495,7 +20495,7 @@
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1372" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1372" t="s">
         <v>18</v>
@@ -20509,7 +20509,7 @@
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1373" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1373" t="s">
         <v>18</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="1374" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1374" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1374" t="s">
         <v>18</v>
@@ -20537,7 +20537,7 @@
     </row>
     <row r="1375" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1375" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1375" t="s">
         <v>18</v>
@@ -20551,7 +20551,7 @@
     </row>
     <row r="1376" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1376" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1376" t="s">
         <v>18</v>
@@ -20565,7 +20565,7 @@
     </row>
     <row r="1377" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1377" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1377" t="s">
         <v>73</v>
@@ -20579,10 +20579,10 @@
     </row>
     <row r="1378" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1378" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1378" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1378" t="s">
         <v>6</v>
@@ -20593,7 +20593,7 @@
     </row>
     <row r="1379" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1379" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1379" t="s">
         <v>60</v>
@@ -20607,7 +20607,7 @@
     </row>
     <row r="1380" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1380" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1380" t="s">
         <v>23</v>
@@ -20621,7 +20621,7 @@
     </row>
     <row r="1381" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1381" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1381" t="s">
         <v>23</v>
@@ -20635,7 +20635,7 @@
     </row>
     <row r="1382" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1382" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1382" t="s">
         <v>3</v>
@@ -20649,7 +20649,7 @@
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1383" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1383" t="s">
         <v>9</v>
@@ -20663,7 +20663,7 @@
     </row>
     <row r="1384" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1384" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1384" t="s">
         <v>9</v>
@@ -20677,7 +20677,7 @@
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1385" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1385" t="s">
         <v>9</v>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="1386" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1386" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1386" t="s">
         <v>9</v>
@@ -20705,7 +20705,7 @@
     </row>
     <row r="1387" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1387" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1387" t="s">
         <v>9</v>
@@ -20719,7 +20719,7 @@
     </row>
     <row r="1388" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1388" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1388" t="s">
         <v>10</v>
@@ -20733,7 +20733,7 @@
     </row>
     <row r="1389" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1389" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1389" t="s">
         <v>10</v>
@@ -20747,7 +20747,7 @@
     </row>
     <row r="1390" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1390" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1390" t="s">
         <v>10</v>
@@ -20761,7 +20761,7 @@
     </row>
     <row r="1391" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1391" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1391" t="s">
         <v>11</v>
@@ -20775,7 +20775,7 @@
     </row>
     <row r="1392" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1392" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1392" t="s">
         <v>11</v>
@@ -20789,7 +20789,7 @@
     </row>
     <row r="1393" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1393" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1393" t="s">
         <v>11</v>
@@ -20803,7 +20803,7 @@
     </row>
     <row r="1394" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1394" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1394" t="s">
         <v>35</v>
@@ -20817,7 +20817,7 @@
     </row>
     <row r="1395" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1395" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1395" t="s">
         <v>35</v>
@@ -20831,7 +20831,7 @@
     </row>
     <row r="1396" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1396" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1396" t="s">
         <v>35</v>
@@ -20845,7 +20845,7 @@
     </row>
     <row r="1397" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1397" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1397" t="s">
         <v>35</v>
@@ -20859,7 +20859,7 @@
     </row>
     <row r="1398" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1398" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1398" t="s">
         <v>30</v>
@@ -20873,7 +20873,7 @@
     </row>
     <row r="1399" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1399" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1399" t="s">
         <v>91</v>
@@ -20887,7 +20887,7 @@
     </row>
     <row r="1400" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1400" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1400" t="s">
         <v>91</v>
@@ -20901,7 +20901,7 @@
     </row>
     <row r="1401" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1401" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1401" t="s">
         <v>91</v>
@@ -20915,7 +20915,7 @@
     </row>
     <row r="1402" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1402" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1402" t="s">
         <v>91</v>
@@ -20929,7 +20929,7 @@
     </row>
     <row r="1403" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1403" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1403" t="s">
         <v>49</v>
@@ -20943,7 +20943,7 @@
     </row>
     <row r="1404" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1404" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1404" t="s">
         <v>49</v>
@@ -20957,7 +20957,7 @@
     </row>
     <row r="1405" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1405" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1405" t="s">
         <v>49</v>
@@ -20971,7 +20971,7 @@
     </row>
     <row r="1406" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1406" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1406" t="s">
         <v>49</v>
@@ -20985,7 +20985,7 @@
     </row>
     <row r="1407" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1407" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1407" t="s">
         <v>49</v>
@@ -20999,7 +20999,7 @@
     </row>
     <row r="1408" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1408" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1408" t="s">
         <v>49</v>
@@ -21013,7 +21013,7 @@
     </row>
     <row r="1409" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1409" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1409" t="s">
         <v>49</v>
@@ -21027,7 +21027,7 @@
     </row>
     <row r="1410" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1410" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1410" t="s">
         <v>109</v>
@@ -21041,7 +21041,7 @@
     </row>
     <row r="1411" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1411" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1411" t="s">
         <v>109</v>
@@ -21055,7 +21055,7 @@
     </row>
     <row r="1412" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1412" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1412" t="s">
         <v>109</v>
@@ -21069,7 +21069,7 @@
     </row>
     <row r="1413" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1413" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1413" t="s">
         <v>64</v>
@@ -21083,7 +21083,7 @@
     </row>
     <row r="1414" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1414" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1414" t="s">
         <v>64</v>
@@ -21097,7 +21097,7 @@
     </row>
     <row r="1415" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1415" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1415" t="s">
         <v>64</v>
@@ -21111,7 +21111,7 @@
     </row>
     <row r="1416" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1416" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1416" t="s">
         <v>64</v>
@@ -21125,7 +21125,7 @@
     </row>
     <row r="1417" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1417" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1417" t="s">
         <v>64</v>
@@ -21139,7 +21139,7 @@
     </row>
     <row r="1418" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1418" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1418" t="s">
         <v>64</v>
@@ -21153,7 +21153,7 @@
     </row>
     <row r="1419" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1419" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1419" t="s">
         <v>64</v>
@@ -21167,7 +21167,7 @@
     </row>
     <row r="1420" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1420" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1420" t="s">
         <v>20</v>
@@ -21181,7 +21181,7 @@
     </row>
     <row r="1421" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1421" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1421" t="s">
         <v>20</v>
@@ -21195,7 +21195,7 @@
     </row>
     <row r="1422" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1422" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1422" t="s">
         <v>20</v>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="1423" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1423" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1423" t="s">
         <v>20</v>
@@ -21223,7 +21223,7 @@
     </row>
     <row r="1424" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1424" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1424" t="s">
         <v>20</v>
@@ -21237,7 +21237,7 @@
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1425" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1425" t="s">
         <v>55</v>
@@ -21251,7 +21251,7 @@
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1426" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1426" t="s">
         <v>55</v>
@@ -21265,7 +21265,7 @@
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1427" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1427" t="s">
         <v>65</v>
@@ -21279,7 +21279,7 @@
     </row>
     <row r="1428" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1428" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1428" t="s">
         <v>65</v>
@@ -21293,7 +21293,7 @@
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1429" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1429" t="s">
         <v>65</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="1430" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1430" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1430" t="s">
         <v>65</v>
@@ -21321,7 +21321,7 @@
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1431" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1431" t="s">
         <v>65</v>
@@ -21335,7 +21335,7 @@
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1432" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1432" t="s">
         <v>25</v>
@@ -21349,7 +21349,7 @@
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1433" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1433" t="s">
         <v>25</v>
@@ -21363,7 +21363,7 @@
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1434" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1434" t="s">
         <v>25</v>
@@ -21377,7 +21377,7 @@
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1435" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1435" t="s">
         <v>57</v>
@@ -21391,7 +21391,7 @@
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1436" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1436" t="s">
         <v>57</v>
@@ -21405,7 +21405,7 @@
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1437" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1437" t="s">
         <v>57</v>
@@ -21419,7 +21419,7 @@
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1438" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1438" t="s">
         <v>57</v>
@@ -21433,7 +21433,7 @@
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1439" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1439" t="s">
         <v>42</v>
@@ -21447,7 +21447,7 @@
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1440" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1440" t="s">
         <v>42</v>
@@ -21461,7 +21461,7 @@
     </row>
     <row r="1441" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1441" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1441" t="s">
         <v>42</v>
@@ -21475,7 +21475,7 @@
     </row>
     <row r="1442" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1442" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1442" t="s">
         <v>26</v>
@@ -21489,7 +21489,7 @@
     </row>
     <row r="1443" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1443" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1443" t="s">
         <v>50</v>
@@ -21503,7 +21503,7 @@
     </row>
     <row r="1444" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1444" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1444" t="s">
         <v>50</v>
@@ -21517,7 +21517,7 @@
     </row>
     <row r="1445" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1445" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1445" t="s">
         <v>50</v>
@@ -21531,7 +21531,7 @@
     </row>
     <row r="1446" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1446" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1446" t="s">
         <v>50</v>
@@ -21545,7 +21545,7 @@
     </row>
     <row r="1447" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1447" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1447" t="s">
         <v>31</v>
@@ -21559,7 +21559,7 @@
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1448" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1448" t="s">
         <v>31</v>
@@ -21573,7 +21573,7 @@
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1449" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1449" t="s">
         <v>31</v>
@@ -21587,7 +21587,7 @@
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1450" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1450" t="s">
         <v>31</v>
@@ -21601,7 +21601,7 @@
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1451" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1451" t="s">
         <v>31</v>
@@ -21615,7 +21615,7 @@
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1452" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1452" t="s">
         <v>31</v>
@@ -21629,7 +21629,7 @@
     </row>
     <row r="1453" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1453" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1453" t="s">
         <v>106</v>
@@ -21643,7 +21643,7 @@
     </row>
     <row r="1454" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1454" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1454" t="s">
         <v>106</v>
@@ -21657,7 +21657,7 @@
     </row>
     <row r="1455" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1455" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1455" t="s">
         <v>106</v>
@@ -21671,7 +21671,7 @@
     </row>
     <row r="1456" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1456" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1456" t="s">
         <v>106</v>
@@ -21685,7 +21685,7 @@
     </row>
     <row r="1457" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1457" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1457" t="s">
         <v>106</v>
@@ -21699,7 +21699,7 @@
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1458" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1458" t="s">
         <v>12</v>
@@ -21713,7 +21713,7 @@
     </row>
     <row r="1459" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1459" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1459" t="s">
         <v>12</v>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1460" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1460" t="s">
         <v>12</v>
@@ -21741,7 +21741,7 @@
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1461" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1461" t="s">
         <v>12</v>
@@ -21755,7 +21755,7 @@
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1462" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1462" t="s">
         <v>12</v>
@@ -21769,7 +21769,7 @@
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1463" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1463" t="s">
         <v>12</v>
@@ -21783,7 +21783,7 @@
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1464" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1464" t="s">
         <v>12</v>
@@ -21797,7 +21797,7 @@
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1465" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1465" t="s">
         <v>43</v>
@@ -21811,7 +21811,7 @@
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1466" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1466" t="s">
         <v>43</v>
@@ -21825,7 +21825,7 @@
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1467" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1467" t="s">
         <v>43</v>
@@ -21839,7 +21839,7 @@
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1468" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1468" t="s">
         <v>43</v>
@@ -21853,7 +21853,7 @@
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1469" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1469" t="s">
         <v>44</v>
@@ -21867,7 +21867,7 @@
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1470" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1470" t="s">
         <v>27</v>
@@ -21881,7 +21881,7 @@
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1471" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1471" t="s">
         <v>45</v>
@@ -21895,7 +21895,7 @@
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1472" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1472" t="s">
         <v>45</v>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1473" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1473" t="s">
         <v>45</v>
@@ -21923,7 +21923,7 @@
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1474" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1474" t="s">
         <v>45</v>
@@ -21937,7 +21937,7 @@
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1475" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1475" t="s">
         <v>45</v>
@@ -21951,7 +21951,7 @@
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1476" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1476" t="s">
         <v>86</v>
@@ -21965,7 +21965,7 @@
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1477" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1477" t="s">
         <v>66</v>
@@ -21979,7 +21979,7 @@
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1478" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1478" t="s">
         <v>66</v>
@@ -21993,7 +21993,7 @@
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1479" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1479" t="s">
         <v>38</v>
@@ -22007,7 +22007,7 @@
     </row>
     <row r="1480" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1480" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1480" t="s">
         <v>38</v>
@@ -22021,7 +22021,7 @@
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1481" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1481" t="s">
         <v>38</v>
@@ -22035,7 +22035,7 @@
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1482" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1482" t="s">
         <v>38</v>
@@ -22049,7 +22049,7 @@
     </row>
     <row r="1483" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1483" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1483" t="s">
         <v>67</v>
@@ -22063,7 +22063,7 @@
     </row>
     <row r="1484" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1484" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1484" t="s">
         <v>28</v>
@@ -22077,7 +22077,7 @@
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1485" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1485" t="s">
         <v>15</v>
@@ -22091,7 +22091,7 @@
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1486" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1486" t="s">
         <v>15</v>
@@ -22105,7 +22105,7 @@
     </row>
     <row r="1487" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1487" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1487" t="s">
         <v>15</v>
@@ -22119,7 +22119,7 @@
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1488" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1488" t="s">
         <v>15</v>
@@ -22133,7 +22133,7 @@
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1489" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1489" t="s">
         <v>21</v>
@@ -22147,7 +22147,7 @@
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1490" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1490" t="s">
         <v>16</v>
@@ -22161,7 +22161,7 @@
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1491" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1491" t="s">
         <v>16</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="1492" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1492" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1492" t="s">
         <v>69</v>
@@ -22189,7 +22189,7 @@
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1493" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1493" t="s">
         <v>51</v>
@@ -22203,7 +22203,7 @@
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1494" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1494" t="s">
         <v>51</v>
@@ -22217,7 +22217,7 @@
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1495" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1495" t="s">
         <v>51</v>
@@ -22231,7 +22231,7 @@
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1496" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1496" t="s">
         <v>51</v>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1497" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1497" t="s">
         <v>51</v>
@@ -22259,7 +22259,7 @@
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1498" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1498" t="s">
         <v>51</v>
@@ -22273,7 +22273,7 @@
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1499" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1499" t="s">
         <v>51</v>
@@ -22287,7 +22287,7 @@
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1500" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1500" t="s">
         <v>79</v>
@@ -22301,7 +22301,7 @@
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1501" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1501" t="s">
         <v>79</v>
@@ -22315,7 +22315,7 @@
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1502" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1502" t="s">
         <v>70</v>
@@ -22329,7 +22329,7 @@
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1503" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1503" t="s">
         <v>70</v>
@@ -22343,7 +22343,7 @@
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1504" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1504" t="s">
         <v>70</v>
@@ -22357,7 +22357,7 @@
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1505" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1505" t="s">
         <v>52</v>
@@ -22371,7 +22371,7 @@
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1506" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1506" t="s">
         <v>52</v>
@@ -22385,7 +22385,7 @@
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1507" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1507" t="s">
         <v>52</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1508" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1508" t="s">
         <v>58</v>
@@ -22413,7 +22413,7 @@
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1509" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1509" t="s">
         <v>58</v>
@@ -22427,7 +22427,7 @@
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1510" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1510" t="s">
         <v>87</v>
@@ -22441,7 +22441,7 @@
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1511" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1511" t="s">
         <v>18</v>
@@ -22455,7 +22455,7 @@
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1512" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1512" t="s">
         <v>9</v>
@@ -22469,7 +22469,7 @@
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1513" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1513" t="s">
         <v>20</v>
@@ -22483,7 +22483,7 @@
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1514" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1514" t="s">
         <v>31</v>
@@ -22497,7 +22497,7 @@
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1515" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1515" t="s">
         <v>31</v>
@@ -22511,7 +22511,7 @@
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1516" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1516" t="s">
         <v>31</v>
@@ -22525,7 +22525,7 @@
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1517" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1517" t="s">
         <v>51</v>
@@ -22539,7 +22539,7 @@
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1518" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1518" t="s">
         <v>24</v>
@@ -22553,7 +22553,7 @@
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1519" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1519" t="s">
         <v>9</v>
@@ -22567,7 +22567,7 @@
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1520" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1520" t="s">
         <v>9</v>
@@ -22581,7 +22581,7 @@
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1521" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1521" t="s">
         <v>9</v>
@@ -22595,7 +22595,7 @@
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1522" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1522" t="s">
         <v>9</v>
@@ -22609,7 +22609,7 @@
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1523" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1523" t="s">
         <v>11</v>
@@ -22623,7 +22623,7 @@
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1524" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1524" t="s">
         <v>65</v>
@@ -22637,7 +22637,7 @@
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1525" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1525" t="s">
         <v>65</v>
@@ -22651,7 +22651,7 @@
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1526" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1526" t="s">
         <v>65</v>
@@ -22665,7 +22665,7 @@
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1527" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1527" t="s">
         <v>25</v>
@@ -22679,7 +22679,7 @@
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1528" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1528" t="s">
         <v>57</v>
@@ -22693,7 +22693,7 @@
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1529" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1529" t="s">
         <v>57</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1530" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1530" t="s">
         <v>57</v>
@@ -22721,7 +22721,7 @@
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1531" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1531" t="s">
         <v>26</v>
@@ -22735,7 +22735,7 @@
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1532" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1532" t="s">
         <v>12</v>
@@ -22749,7 +22749,7 @@
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1533" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1533" t="s">
         <v>12</v>
@@ -22763,7 +22763,7 @@
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1534" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1534" t="s">
         <v>12</v>
@@ -22777,7 +22777,7 @@
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1535" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1535" t="s">
         <v>15</v>
@@ -22791,7 +22791,7 @@
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1536" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1536" t="s">
         <v>15</v>
@@ -22805,7 +22805,7 @@
     </row>
     <row r="1537" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1537" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1537" t="s">
         <v>15</v>
@@ -22819,7 +22819,7 @@
     </row>
     <row r="1538" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1538" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1538" t="s">
         <v>39</v>
@@ -22833,7 +22833,7 @@
     </row>
     <row r="1539" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1539" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1539" t="s">
         <v>39</v>
@@ -22847,7 +22847,7 @@
     </row>
     <row r="1540" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1540" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1540" t="s">
         <v>39</v>
@@ -22861,7 +22861,7 @@
     </row>
     <row r="1541" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1541" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1541" t="s">
         <v>70</v>
@@ -22875,7 +22875,7 @@
     </row>
     <row r="1542" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1542" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1542" t="s">
         <v>33</v>
@@ -22889,7 +22889,7 @@
     </row>
     <row r="1543" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1543" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1543" t="s">
         <v>58</v>
@@ -22903,7 +22903,7 @@
     </row>
     <row r="1544" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1544" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1544" t="s">
         <v>87</v>
@@ -22917,7 +22917,7 @@
     </row>
     <row r="1545" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1545" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1545" t="s">
         <v>15</v>
@@ -22931,7 +22931,7 @@
     </row>
     <row r="1546" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1546" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1546" t="s">
         <v>73</v>
@@ -22945,7 +22945,7 @@
     </row>
     <row r="1547" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1547" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1547" t="s">
         <v>73</v>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="1548" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1548" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1548" t="s">
         <v>73</v>
@@ -22973,7 +22973,7 @@
     </row>
     <row r="1549" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1549" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1549" t="s">
         <v>73</v>
@@ -22987,7 +22987,7 @@
     </row>
     <row r="1550" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1550" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1550" t="s">
         <v>23</v>
@@ -23001,7 +23001,7 @@
     </row>
     <row r="1551" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1551" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1551" t="s">
         <v>9</v>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="1552" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1552" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1552" t="s">
         <v>11</v>
@@ -23029,7 +23029,7 @@
     </row>
     <row r="1553" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1553" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1553" t="s">
         <v>27</v>
@@ -23043,7 +23043,7 @@
     </row>
     <row r="1554" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1554" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1554" t="s">
         <v>28</v>
@@ -23057,7 +23057,7 @@
     </row>
     <row r="1555" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1555" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1555" t="s">
         <v>71</v>
@@ -23071,7 +23071,7 @@
     </row>
     <row r="1556" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1556" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1556" t="s">
         <v>71</v>
